--- a/data/trans_orig/CoTrAQ-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>15077</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8759</v>
+        <v>8503</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23762</v>
+        <v>23416</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1930875929103957</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1121693169296929</v>
+        <v>0.1088904860409205</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3043132005978433</v>
+        <v>0.2998860005970477</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -763,19 +763,19 @@
         <v>9998</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4944</v>
+        <v>4986</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17171</v>
+        <v>16398</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1205549567762118</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05960832688011243</v>
+        <v>0.06011936509398939</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2070400140513333</v>
+        <v>0.197717562495139</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -784,19 +784,19 @@
         <v>25075</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16305</v>
+        <v>16637</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34824</v>
+        <v>35749</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1557280572973009</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1012623253302108</v>
+        <v>0.1033216919540827</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2162687757058116</v>
+        <v>0.2220166518977586</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>24262</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16241</v>
+        <v>15936</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33373</v>
+        <v>34785</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3107113611415273</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2079999744993568</v>
+        <v>0.2040936894575627</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4273997500857653</v>
+        <v>0.4454774833909785</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -834,19 +834,19 @@
         <v>16803</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10076</v>
+        <v>11024</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24787</v>
+        <v>24812</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2025940609198907</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1214919670878016</v>
+        <v>0.1329235420644858</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2988655136268517</v>
+        <v>0.2991650129442792</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -855,19 +855,19 @@
         <v>41064</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30242</v>
+        <v>30968</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54019</v>
+        <v>53666</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2550231586536233</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.187815805232803</v>
+        <v>0.19232404814923</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3354801423187387</v>
+        <v>0.3332843723792122</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>38745</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29207</v>
+        <v>28810</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47888</v>
+        <v>48319</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.496201045948077</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3740471357598322</v>
+        <v>0.368960616723246</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6132837167967446</v>
+        <v>0.6188065317911157</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>54</v>
@@ -905,19 +905,19 @@
         <v>56136</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>47652</v>
+        <v>46895</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>64626</v>
+        <v>63766</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6768509823038976</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5745597101548134</v>
+        <v>0.5654291425493393</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7792229662609914</v>
+        <v>0.7688503964831385</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>92</v>
@@ -926,19 +926,19 @@
         <v>94881</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>81717</v>
+        <v>82180</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>107867</v>
+        <v>107812</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5892487840490759</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5074909998704107</v>
+        <v>0.5103676120611503</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6698926041088786</v>
+        <v>0.6695547804862746</v>
       </c>
     </row>
     <row r="7">
@@ -1030,19 +1030,19 @@
         <v>61109</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47307</v>
+        <v>47285</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>76392</v>
+        <v>75623</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1633362352275229</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1264433230388551</v>
+        <v>0.1263863990735988</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2041838225705371</v>
+        <v>0.202128653873796</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>43</v>
@@ -1051,19 +1051,19 @@
         <v>48633</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36888</v>
+        <v>35918</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64318</v>
+        <v>63107</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1840016182516985</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1395673267070767</v>
+        <v>0.1358958791126924</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2433490438916074</v>
+        <v>0.2387667359482472</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>101</v>
@@ -1072,19 +1072,19 @@
         <v>109742</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>91036</v>
+        <v>90820</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>130084</v>
+        <v>131501</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1718914367733366</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1425916706406311</v>
+        <v>0.1422529195329306</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2037543179541391</v>
+        <v>0.2059727895330177</v>
       </c>
     </row>
     <row r="9">
@@ -1101,19 +1101,19 @@
         <v>57542</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>45675</v>
+        <v>43091</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>73758</v>
+        <v>70541</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.153801336666275</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1220810039698156</v>
+        <v>0.1151767176529917</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1971426101854696</v>
+        <v>0.1885464564300271</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>40</v>
@@ -1122,19 +1122,19 @@
         <v>41582</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>30237</v>
+        <v>30192</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>55621</v>
+        <v>54042</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.157325682199719</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1144006394743045</v>
+        <v>0.1142307687590073</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2104416002137508</v>
+        <v>0.2044698687308019</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>97</v>
@@ -1143,19 +1143,19 @@
         <v>99124</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>81284</v>
+        <v>80462</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>119150</v>
+        <v>118473</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1552603701775547</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1273175553544012</v>
+        <v>0.1260288592086203</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.186627889083701</v>
+        <v>0.1855670603019661</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>255481</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>237089</v>
+        <v>237013</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>274242</v>
+        <v>271882</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6828624281062021</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6337020053120811</v>
+        <v>0.633499438337665</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7330061260530153</v>
+        <v>0.7266999551330946</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>163</v>
@@ -1193,19 +1193,19 @@
         <v>174090</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>156039</v>
+        <v>159363</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>188388</v>
+        <v>189716</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6586726995485825</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5903732002395242</v>
+        <v>0.6029514977610025</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7127681348663124</v>
+        <v>0.7177926541079311</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>410</v>
@@ -1214,19 +1214,19 @@
         <v>429572</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>404932</v>
+        <v>402100</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>451485</v>
+        <v>454027</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6728481930491087</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6342548030573449</v>
+        <v>0.6298181499970682</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7071712548672526</v>
+        <v>0.711152640378355</v>
       </c>
     </row>
     <row r="11">
@@ -1318,19 +1318,19 @@
         <v>55987</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42890</v>
+        <v>42547</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>71331</v>
+        <v>71841</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1365009390360581</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1045706115494104</v>
+        <v>0.1037330113837271</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1739114852087859</v>
+        <v>0.1751546281042346</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -1339,19 +1339,19 @@
         <v>46448</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>34450</v>
+        <v>34750</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>61113</v>
+        <v>61640</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1687039427812377</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1251262531344067</v>
+        <v>0.1262171724961296</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2219714777255093</v>
+        <v>0.2238857432605918</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>94</v>
@@ -1360,19 +1360,19 @@
         <v>102434</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>84421</v>
+        <v>83939</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>123842</v>
+        <v>122329</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1494351991543249</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1231568020235179</v>
+        <v>0.1224537204295232</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1806650931332429</v>
+        <v>0.1784578339172956</v>
       </c>
     </row>
     <row r="13">
@@ -1389,19 +1389,19 @@
         <v>59604</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46757</v>
+        <v>46829</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74679</v>
+        <v>74935</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1453204696715453</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1139987384238313</v>
+        <v>0.1141722379663125</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1820733520396904</v>
+        <v>0.1826972173901663</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -1410,19 +1410,19 @@
         <v>57488</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44247</v>
+        <v>43336</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71331</v>
+        <v>70906</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2088031710662699</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1607102291777282</v>
+        <v>0.1574025733382494</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2590832833828136</v>
+        <v>0.257539366772812</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>113</v>
@@ -1431,19 +1431,19 @@
         <v>117092</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>97865</v>
+        <v>98840</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>138637</v>
+        <v>136824</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1708181462034289</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1427686917716481</v>
+        <v>0.1441914705735405</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2022494085346448</v>
+        <v>0.1996039503755594</v>
       </c>
     </row>
     <row r="14">
@@ -1460,19 +1460,19 @@
         <v>294566</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>274165</v>
+        <v>274214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>312640</v>
+        <v>312041</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7181785912923966</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6684400399454382</v>
+        <v>0.6685596297396975</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7622444677617219</v>
+        <v>0.760783164166114</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>165</v>
@@ -1481,19 +1481,19 @@
         <v>171385</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>154464</v>
+        <v>155415</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>187281</v>
+        <v>189415</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6224928861524924</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5610344263743587</v>
+        <v>0.5644886722406465</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6802303495965589</v>
+        <v>0.6879799694038737</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>451</v>
@@ -1502,19 +1502,19 @@
         <v>465951</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>440300</v>
+        <v>440694</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>490103</v>
+        <v>488861</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6797466546422463</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6423258230811305</v>
+        <v>0.6429014719782413</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7149806314479215</v>
+        <v>0.713168354390183</v>
       </c>
     </row>
     <row r="15">
@@ -1606,19 +1606,19 @@
         <v>34536</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23671</v>
+        <v>24225</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48512</v>
+        <v>47448</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09614974753361556</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06590192448251736</v>
+        <v>0.06744380151664324</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1350597071314672</v>
+        <v>0.1320988657931803</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -1627,19 +1627,19 @@
         <v>39735</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27879</v>
+        <v>30455</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54733</v>
+        <v>54855</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1849131440321693</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1297398926294346</v>
+        <v>0.1417252436933764</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2547060214302723</v>
+        <v>0.2552738735130145</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>65</v>
@@ -1648,19 +1648,19 @@
         <v>74271</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>58228</v>
+        <v>58049</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94144</v>
+        <v>93631</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1293756215950982</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1014297989605197</v>
+        <v>0.1011171190968009</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.163991774639076</v>
+        <v>0.1630990689774891</v>
       </c>
     </row>
     <row r="17">
@@ -1677,19 +1677,19 @@
         <v>52433</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39184</v>
+        <v>39846</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>68797</v>
+        <v>68887</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.145975610595779</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1090919766695874</v>
+        <v>0.1109348216798693</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1915342573226328</v>
+        <v>0.1917870262253851</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -1698,19 +1698,19 @@
         <v>34102</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23896</v>
+        <v>23624</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46565</v>
+        <v>45404</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1586978349065468</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1112024435023003</v>
+        <v>0.1099379912959519</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.216694908708596</v>
+        <v>0.2112911131382239</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>77</v>
@@ -1719,19 +1719,19 @@
         <v>86535</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>68627</v>
+        <v>68386</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>105561</v>
+        <v>104939</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1507377877927545</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1195428107144113</v>
+        <v>0.1191239100477355</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1838796218858665</v>
+        <v>0.1827962297105912</v>
       </c>
     </row>
     <row r="18">
@@ -1748,19 +1748,19 @@
         <v>272219</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>254368</v>
+        <v>253906</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>287958</v>
+        <v>288714</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7578746418706054</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7081764218507366</v>
+        <v>0.7068908596953073</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8016935956531736</v>
+        <v>0.8037988552560819</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>121</v>
@@ -1769,19 +1769,19 @@
         <v>141049</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>125116</v>
+        <v>126332</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>157086</v>
+        <v>155896</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6563890210612839</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5822422771105995</v>
+        <v>0.5878997236077873</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7310178352059292</v>
+        <v>0.7254799916239409</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>361</v>
@@ -1790,19 +1790,19 @@
         <v>413269</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>388713</v>
+        <v>388794</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>435539</v>
+        <v>436468</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7198865906121473</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6771119924200202</v>
+        <v>0.6772532818258804</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7586796729569205</v>
+        <v>0.7602972078836259</v>
       </c>
     </row>
     <row r="19">
@@ -1894,19 +1894,19 @@
         <v>16324</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10046</v>
+        <v>9909</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26124</v>
+        <v>25339</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1057863856351821</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06509862283981917</v>
+        <v>0.0642114182574397</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1692927070396561</v>
+        <v>0.1642038155946765</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1915,19 +1915,19 @@
         <v>8753</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4234</v>
+        <v>4248</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16770</v>
+        <v>15705</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1361391197307451</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0658553686072661</v>
+        <v>0.06607028441370645</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2608362524561258</v>
+        <v>0.2442708709080349</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -1936,19 +1936,19 @@
         <v>25077</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16579</v>
+        <v>17091</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>36436</v>
+        <v>36272</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1147133766744365</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07583742153574075</v>
+        <v>0.07818199572502381</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1666724738240336</v>
+        <v>0.1659229779057808</v>
       </c>
     </row>
     <row r="21">
@@ -1965,19 +1965,19 @@
         <v>21339</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13924</v>
+        <v>13298</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32567</v>
+        <v>32875</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1382837916822709</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09023301725476235</v>
+        <v>0.08617290798972636</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2110439622528418</v>
+        <v>0.213041096086707</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -1986,19 +1986,19 @@
         <v>8051</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3147</v>
+        <v>3897</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15374</v>
+        <v>15638</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1252212944504831</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04893891250490118</v>
+        <v>0.06061777771125991</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2391114704302797</v>
+        <v>0.2432249949827647</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>26</v>
@@ -2007,19 +2007,19 @@
         <v>29390</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19907</v>
+        <v>19418</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>41662</v>
+        <v>41725</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1344420028216259</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09106044035285769</v>
+        <v>0.08882491139040953</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1905752178394082</v>
+        <v>0.1908652023139535</v>
       </c>
     </row>
     <row r="22">
@@ -2036,19 +2036,19 @@
         <v>116651</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>104209</v>
+        <v>104968</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>126136</v>
+        <v>126929</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7559298226825469</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6753006658741469</v>
+        <v>0.6802173363881912</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8173908366053521</v>
+        <v>0.8225343681776418</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -2057,19 +2057,19 @@
         <v>47491</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37706</v>
+        <v>39048</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53593</v>
+        <v>53557</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7386395858187719</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5864582310131508</v>
+        <v>0.6073326505730464</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8335453716499271</v>
+        <v>0.8329866901603511</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>153</v>
@@ -2078,19 +2078,19 @@
         <v>164142</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>150083</v>
+        <v>149487</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>177663</v>
+        <v>176733</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7508446205039376</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6865321050521779</v>
+        <v>0.6838054278811735</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8126938080746282</v>
+        <v>0.8084375838186983</v>
       </c>
     </row>
     <row r="23">
@@ -2182,19 +2182,19 @@
         <v>183033</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>156291</v>
+        <v>158111</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>208641</v>
+        <v>210355</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1330304972273066</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1135938181603708</v>
+        <v>0.1149168300121982</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.151642603299543</v>
+        <v>0.1528877348235676</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>137</v>
@@ -2203,19 +2203,19 @@
         <v>153567</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>132329</v>
+        <v>132752</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>178499</v>
+        <v>180122</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1703000622688544</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1467473428144407</v>
+        <v>0.147216606164275</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.197948588015199</v>
+        <v>0.1997483089284087</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>307</v>
@@ -2224,19 +2224,19 @@
         <v>336601</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>303242</v>
+        <v>302557</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>372747</v>
+        <v>375346</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.147786091608714</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1331397933083776</v>
+        <v>0.1328389583477025</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1636562063974429</v>
+        <v>0.1647972711498612</v>
       </c>
     </row>
     <row r="25">
@@ -2253,19 +2253,19 @@
         <v>215180</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>188168</v>
+        <v>189348</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>245773</v>
+        <v>243640</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1563946849708468</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1367625222447633</v>
+        <v>0.1376198018430581</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1786298360038715</v>
+        <v>0.1770798437200174</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>149</v>
@@ -2274,19 +2274,19 @@
         <v>158026</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>136006</v>
+        <v>136073</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>182016</v>
+        <v>183408</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1752441949134881</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1508252784771349</v>
+        <v>0.1509000997107398</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2018485144813637</v>
+        <v>0.2033919992856008</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>351</v>
@@ -2295,19 +2295,19 @@
         <v>373205</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>338277</v>
+        <v>338974</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>415945</v>
+        <v>409650</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1638574960525393</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1485219544206734</v>
+        <v>0.1488282812431274</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1826226624788265</v>
+        <v>0.179858649925701</v>
       </c>
     </row>
     <row r="26">
@@ -2324,19 +2324,19 @@
         <v>977663</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>942664</v>
+        <v>942122</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1012056</v>
+        <v>1010514</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7105748178018465</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.685137028801995</v>
+        <v>0.6847431673637357</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7355721422975993</v>
+        <v>0.7344512556434565</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>546</v>
@@ -2345,19 +2345,19 @@
         <v>590152</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>559301</v>
+        <v>560634</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>618795</v>
+        <v>620001</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6544557428176576</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6202432212112061</v>
+        <v>0.6217215309081292</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.686219647249186</v>
+        <v>0.6875571341638983</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1467</v>
@@ -2366,19 +2366,19 @@
         <v>1567815</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1522117</v>
+        <v>1515969</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1615510</v>
+        <v>1611207</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6883564123387467</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6682922689137329</v>
+        <v>0.665592967169786</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.709297008289367</v>
+        <v>0.7074078934879804</v>
       </c>
     </row>
     <row r="27">
@@ -2711,19 +2711,19 @@
         <v>26495</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19425</v>
+        <v>18439</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36454</v>
+        <v>35927</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3349233756384326</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2455412615661943</v>
+        <v>0.2330863255398045</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4608012959397928</v>
+        <v>0.4541396050613566</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -2732,19 +2732,19 @@
         <v>26455</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18756</v>
+        <v>18650</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35923</v>
+        <v>34845</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2880125213944731</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2041906745037613</v>
+        <v>0.2030348125090963</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3910875068635296</v>
+        <v>0.3793459036725405</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -2753,19 +2753,19 @@
         <v>52951</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41770</v>
+        <v>41212</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66156</v>
+        <v>65915</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3097193110733004</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.244320860694935</v>
+        <v>0.2410553353276098</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.386959810153875</v>
+        <v>0.3855475115699485</v>
       </c>
     </row>
     <row r="5">
@@ -2782,19 +2782,19 @@
         <v>17554</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10179</v>
+        <v>11199</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26299</v>
+        <v>27209</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2218959935905187</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1286735246906593</v>
+        <v>0.1415612954573215</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3324351735425847</v>
+        <v>0.3439388483704596</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -2803,19 +2803,19 @@
         <v>22511</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15192</v>
+        <v>15058</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32008</v>
+        <v>30562</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2450727933865257</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1653944747829603</v>
+        <v>0.1639335958111889</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3484664082628221</v>
+        <v>0.332718658011533</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -2824,19 +2824,19 @@
         <v>40065</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29531</v>
+        <v>29292</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52830</v>
+        <v>51927</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2343483261665541</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1727340154510211</v>
+        <v>0.1713322215940689</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3090108008749023</v>
+        <v>0.303728108986536</v>
       </c>
     </row>
     <row r="6">
@@ -2853,19 +2853,19 @@
         <v>35060</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26154</v>
+        <v>25992</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43846</v>
+        <v>44371</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4431806307710487</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3306041952626917</v>
+        <v>0.3285584595821863</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5542450714154578</v>
+        <v>0.560889687999141</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>44</v>
@@ -2874,19 +2874,19 @@
         <v>42888</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33368</v>
+        <v>34060</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50710</v>
+        <v>51998</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4669146852190011</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3632695594725775</v>
+        <v>0.3708009163597041</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5520706920940928</v>
+        <v>0.5660845801869505</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>77</v>
@@ -2895,19 +2895,19 @@
         <v>77948</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>63783</v>
+        <v>65042</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>89552</v>
+        <v>92042</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4559323627601455</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3730781927700519</v>
+        <v>0.3804412498140505</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5238068994561353</v>
+        <v>0.5383727122264025</v>
       </c>
     </row>
     <row r="7">
@@ -2999,19 +2999,19 @@
         <v>96413</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>80486</v>
+        <v>80846</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>114860</v>
+        <v>115783</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2801206768169113</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2338443635623779</v>
+        <v>0.2348920306494281</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3337153029057916</v>
+        <v>0.3363978522216857</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>87</v>
@@ -3020,19 +3020,19 @@
         <v>82933</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>69675</v>
+        <v>68543</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>97382</v>
+        <v>98637</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3029879065658674</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2545525429421698</v>
+        <v>0.2504171890258321</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3557759960452572</v>
+        <v>0.3603617623498217</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>176</v>
@@ -3041,19 +3041,19 @@
         <v>179346</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>158268</v>
+        <v>155692</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>203316</v>
+        <v>200528</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2902503368098282</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2561377781002258</v>
+        <v>0.2519686729250109</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3290424772182179</v>
+        <v>0.3245298443042739</v>
       </c>
     </row>
     <row r="9">
@@ -3070,19 +3070,19 @@
         <v>72979</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>58641</v>
+        <v>59366</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>88192</v>
+        <v>90032</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2120340175415399</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1703751276190649</v>
+        <v>0.1724815218074324</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2562342682183043</v>
+        <v>0.2615809596308262</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>53</v>
@@ -3091,19 +3091,19 @@
         <v>50842</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39818</v>
+        <v>38361</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>64369</v>
+        <v>64497</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1857458938726821</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1454724193508445</v>
+        <v>0.1401492438247239</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2351660578318632</v>
+        <v>0.2356346009925613</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>123</v>
@@ -3112,19 +3112,19 @@
         <v>123821</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>102839</v>
+        <v>104511</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>143404</v>
+        <v>144438</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2003889797498749</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1664324644507081</v>
+        <v>0.1691380135559208</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2320817516125863</v>
+        <v>0.2337555935705314</v>
       </c>
     </row>
     <row r="10">
@@ -3141,19 +3141,19 @@
         <v>174793</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>155708</v>
+        <v>156543</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>194677</v>
+        <v>194579</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5078453056415487</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4523969269967744</v>
+        <v>0.4548235116204075</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.565616573768695</v>
+        <v>0.5653339887541099</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>143</v>
@@ -3162,19 +3162,19 @@
         <v>139942</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>123068</v>
+        <v>124482</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>155412</v>
+        <v>156490</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5112661995614505</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4496188496715892</v>
+        <v>0.454785233161901</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5677856505355015</v>
+        <v>0.5717239451491513</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>313</v>
@@ -3183,19 +3183,19 @@
         <v>314735</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>291189</v>
+        <v>292238</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>340335</v>
+        <v>339862</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5093606834402968</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4712543634018074</v>
+        <v>0.4729519471242466</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5507910002825233</v>
+        <v>0.5500252944125293</v>
       </c>
     </row>
     <row r="11">
@@ -3287,19 +3287,19 @@
         <v>96462</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>77993</v>
+        <v>81043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>114405</v>
+        <v>115662</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2098877828183884</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1697030378016605</v>
+        <v>0.1763389477288188</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2489296835621769</v>
+        <v>0.251663572226314</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>84</v>
@@ -3308,19 +3308,19 @@
         <v>81510</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>67340</v>
+        <v>65977</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>97420</v>
+        <v>98516</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2567930057057388</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2121520863009699</v>
+        <v>0.2078563969747203</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3069170226983233</v>
+        <v>0.3103711715618081</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>174</v>
@@ -3329,19 +3329,19 @@
         <v>177971</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>158157</v>
+        <v>158404</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>203449</v>
+        <v>202652</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2290490848929013</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2035483955224869</v>
+        <v>0.2038655281217913</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.261839423064276</v>
+        <v>0.2608124816575965</v>
       </c>
     </row>
     <row r="13">
@@ -3358,19 +3358,19 @@
         <v>113864</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95817</v>
+        <v>94309</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>132966</v>
+        <v>131970</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2477527100882613</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2084855877203959</v>
+        <v>0.2052024912305934</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2893166998180648</v>
+        <v>0.2871482433338752</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -3379,19 +3379,19 @@
         <v>69758</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56317</v>
+        <v>55402</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85079</v>
+        <v>84293</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2197688143559234</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.177423380181812</v>
+        <v>0.1745408635591229</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2680389471734068</v>
+        <v>0.2655612944872026</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>181</v>
@@ -3400,19 +3400,19 @@
         <v>183622</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>161710</v>
+        <v>160164</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>209180</v>
+        <v>207683</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2363209793269178</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2081208356264335</v>
+        <v>0.2061313832759986</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2692148837559109</v>
+        <v>0.2672873485572638</v>
       </c>
     </row>
     <row r="14">
@@ -3429,19 +3429,19 @@
         <v>249262</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>227963</v>
+        <v>228891</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>272773</v>
+        <v>272253</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5423595070933502</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4960170103162655</v>
+        <v>0.4980348228415515</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5935174192793391</v>
+        <v>0.5923844916825031</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>163</v>
@@ -3450,19 +3450,19 @@
         <v>166147</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>149306</v>
+        <v>150567</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>183760</v>
+        <v>185559</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5234381799383379</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4703831302044348</v>
+        <v>0.4743550337543401</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.578928132990487</v>
+        <v>0.5845967768680382</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>401</v>
@@ -3471,19 +3471,19 @@
         <v>415408</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>388596</v>
+        <v>386528</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>443106</v>
+        <v>442041</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5346299357801809</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.500123414507884</v>
+        <v>0.4974608250583268</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.570277314496989</v>
+        <v>0.5689071777464593</v>
       </c>
     </row>
     <row r="15">
@@ -3575,19 +3575,19 @@
         <v>84772</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>68104</v>
+        <v>68450</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>101853</v>
+        <v>102611</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2305294686978915</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.185203118852053</v>
+        <v>0.1861437251136022</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2769795563206447</v>
+        <v>0.2790396882536573</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -3596,19 +3596,19 @@
         <v>74545</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>59259</v>
+        <v>59018</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88626</v>
+        <v>90542</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3066222114632783</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2437476199744472</v>
+        <v>0.2427544453648243</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3645400413192262</v>
+        <v>0.3724200350231708</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>143</v>
@@ -3617,19 +3617,19 @@
         <v>159318</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>136441</v>
+        <v>139290</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>180171</v>
+        <v>183854</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2608145354310352</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2233641072356345</v>
+        <v>0.2280283746691568</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2949539547599757</v>
+        <v>0.3009829757468157</v>
       </c>
     </row>
     <row r="17">
@@ -3646,19 +3646,19 @@
         <v>70199</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>55912</v>
+        <v>55917</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>86413</v>
+        <v>85563</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1908990291467707</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1520477920324007</v>
+        <v>0.1520597900206518</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2349909563867266</v>
+        <v>0.2326808372466589</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -3667,19 +3667,19 @@
         <v>48918</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36901</v>
+        <v>37994</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>64133</v>
+        <v>63055</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2012111812396957</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1517820706971674</v>
+        <v>0.1562789231891919</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2637949279540364</v>
+        <v>0.2593586227188261</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>110</v>
@@ -3688,19 +3688,19 @@
         <v>119117</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>100105</v>
+        <v>101923</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>140785</v>
+        <v>142480</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1950032867007332</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1638790569962794</v>
+        <v>0.1668548608336537</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2304759163051523</v>
+        <v>0.2332508199572222</v>
       </c>
     </row>
     <row r="18">
@@ -3717,19 +3717,19 @@
         <v>212757</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>191862</v>
+        <v>192245</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>230044</v>
+        <v>233681</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5785715021553377</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5217485456326122</v>
+        <v>0.5227900388191088</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6255823619402513</v>
+        <v>0.6354733278786264</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>110</v>
@@ -3738,19 +3738,19 @@
         <v>119655</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>103352</v>
+        <v>102384</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>136442</v>
+        <v>135588</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.492166607297026</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4251084480121149</v>
+        <v>0.4211274567199997</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.561217423332383</v>
+        <v>0.5577042038651516</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>301</v>
@@ -3759,19 +3759,19 @@
         <v>332412</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>306219</v>
+        <v>304495</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>356906</v>
+        <v>356043</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5441821778682316</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5013025491140741</v>
+        <v>0.4984802888777929</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5842815818569335</v>
+        <v>0.5828686724681302</v>
       </c>
     </row>
     <row r="19">
@@ -3863,19 +3863,19 @@
         <v>39452</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28371</v>
+        <v>27902</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53653</v>
+        <v>50851</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2380547766169889</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1711899561698483</v>
+        <v>0.1683633786922706</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3237447003299128</v>
+        <v>0.3068394592080589</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -3884,19 +3884,19 @@
         <v>32245</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23849</v>
+        <v>22527</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43228</v>
+        <v>42245</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3045504131295696</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2252521004313539</v>
+        <v>0.212764946514489</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4082814630953338</v>
+        <v>0.398993151428342</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>62</v>
@@ -3905,19 +3905,19 @@
         <v>71697</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>56669</v>
+        <v>57461</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>87329</v>
+        <v>88991</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2639765175229196</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2086450624111348</v>
+        <v>0.2115591081246287</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3215282882748052</v>
+        <v>0.3276475592112496</v>
       </c>
     </row>
     <row r="21">
@@ -3934,19 +3934,19 @@
         <v>28576</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18793</v>
+        <v>19928</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>39703</v>
+        <v>40280</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1724282653003617</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1133957131282007</v>
+        <v>0.1202488290666678</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2395688721984945</v>
+        <v>0.2430501420782796</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>24</v>
@@ -3955,19 +3955,19 @@
         <v>27836</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19289</v>
+        <v>17773</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38364</v>
+        <v>37813</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2629043644014793</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1821760880210117</v>
+        <v>0.167862549941254</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3623337215553636</v>
+        <v>0.3571321964112844</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>49</v>
@@ -3976,19 +3976,19 @@
         <v>56412</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>43555</v>
+        <v>44408</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>72922</v>
+        <v>72619</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2076982186699299</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1603607198813499</v>
+        <v>0.1635027035561083</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2684871374085426</v>
+        <v>0.2673697079136694</v>
       </c>
     </row>
     <row r="22">
@@ -4005,19 +4005,19 @@
         <v>97698</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>82623</v>
+        <v>85321</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>110240</v>
+        <v>111502</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5895169580826494</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4985540320325254</v>
+        <v>0.5148303698625525</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6651928337330386</v>
+        <v>0.6728080400508937</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -4026,19 +4026,19 @@
         <v>45797</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34475</v>
+        <v>35607</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>56044</v>
+        <v>57238</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4325452224689511</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3256042258868435</v>
+        <v>0.3362962754141956</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5293188603401565</v>
+        <v>0.5405947834280992</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>125</v>
@@ -4047,19 +4047,19 @@
         <v>143496</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>126201</v>
+        <v>126049</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>162516</v>
+        <v>161495</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5283252638071505</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4646482874260576</v>
+        <v>0.4640881422105658</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5983551498323496</v>
+        <v>0.5945966801151799</v>
       </c>
     </row>
     <row r="23">
@@ -4151,19 +4151,19 @@
         <v>343595</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>310307</v>
+        <v>310766</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>378156</v>
+        <v>376439</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2425940892849737</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2190915323097553</v>
+        <v>0.2194150384677822</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2669959674422638</v>
+        <v>0.2657834390605909</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>293</v>
@@ -4172,19 +4172,19 @@
         <v>297689</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>267777</v>
+        <v>271659</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>326753</v>
+        <v>328715</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2884629814004714</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2594779409927973</v>
+        <v>0.2632397326101238</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3166267874905435</v>
+        <v>0.3185282604490743</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>606</v>
@@ -4193,19 +4193,19 @@
         <v>641283</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>595754</v>
+        <v>600635</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>684101</v>
+        <v>689459</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.261928116416238</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2433321168799105</v>
+        <v>0.2453254466744883</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2794167233181518</v>
+        <v>0.2816053054998268</v>
       </c>
     </row>
     <row r="25">
@@ -4222,19 +4222,19 @@
         <v>303172</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>274480</v>
+        <v>273334</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>338889</v>
+        <v>336286</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2140535988257846</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1937955574062273</v>
+        <v>0.192986362623363</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2392714991365917</v>
+        <v>0.2374333203977403</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>217</v>
@@ -4243,19 +4243,19 @@
         <v>219865</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>195482</v>
+        <v>193616</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>248411</v>
+        <v>248014</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2130507774776809</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1894237968990433</v>
+        <v>0.1876158275493797</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2407128147558331</v>
+        <v>0.2403274285245648</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>502</v>
@@ -4264,19 +4264,19 @@
         <v>523036</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>479633</v>
+        <v>480235</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>563387</v>
+        <v>563254</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.21363090330693</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1959031975847818</v>
+        <v>0.1961488359148043</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2301117620927632</v>
+        <v>0.2300575050809266</v>
       </c>
     </row>
     <row r="26">
@@ -4293,19 +4293,19 @@
         <v>769570</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>733383</v>
+        <v>727107</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>808844</v>
+        <v>805339</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5433523118892418</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.517802795942401</v>
+        <v>0.5133715444175843</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5710816611873898</v>
+        <v>0.5686065816856961</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>498</v>
@@ -4314,19 +4314,19 @@
         <v>514429</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>481004</v>
+        <v>482813</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>544310</v>
+        <v>547828</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4984862411218476</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4660970683113707</v>
+        <v>0.4678504071012143</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5274416857564889</v>
+        <v>0.5308504896066265</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1217</v>
@@ -4335,19 +4335,19 @@
         <v>1283998</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1234110</v>
+        <v>1236747</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1333995</v>
+        <v>1331480</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5244409802768321</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.504064522178588</v>
+        <v>0.5051413142133426</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.544861890790082</v>
+        <v>0.5438345952080162</v>
       </c>
     </row>
     <row r="27">
